--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2C643-85D4-4577-8F31-28878DE4C700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537733F-51E9-47B4-B49B-F1553AE3ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1770" windowWidth="16140" windowHeight="7550" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB5A34-D6BC-4EC5-AC73-E2296ECF8564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7DE8A-7173-4F67-A3F0-0A6BC013E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1950" yWindow="210" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="ID" sheetId="4" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="238">
   <si>
     <t>User</t>
   </si>
@@ -773,13 +774,7 @@
     <t>犬</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
     <t>報表編號</t>
-  </si>
-  <si>
-    <t>需手動將產生編號移過來</t>
   </si>
   <si>
     <t>REPORT_ID</t>
@@ -793,9 +788,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -931,12 +923,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2317,761 +2303,775 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CH4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E04D9-3726-47F1-A3E2-D1E002F32363}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="17" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:84" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="Y1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="AA1" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="AL1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="AN1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BL1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BR1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="BV1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="BX1" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BY1" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BZ1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="CD1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:84" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="R2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="AD2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="AE2" s="4"/>
       <c r="AF2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="AJ2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
-      <c r="BG2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="BJ2" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BQ2" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BS2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="BT2" s="4"/>
       <c r="BU2" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="BV2" s="4"/>
       <c r="BW2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX2" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="BY2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="CB2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CF2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CG2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH2" s="4"/>
+      <c r="CF2" s="4"/>
     </row>
-    <row r="3" spans="1:86" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:84" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BQ3" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BS3" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BT3" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BU3" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BW3" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BY3" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BZ3" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CB3" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CC3" s="4" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="CD3" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CE3" s="4" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="CF3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="CH3" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
-        <v>1120111003995</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
         <v>1017</v>
       </c>
-      <c r="AY4">
+      <c r="AW4">
         <v>3</v>
       </c>
     </row>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E7DE8A-7173-4F67-A3F0-0A6BC013E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFA126D-B525-4D99-9288-E53112FAF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="4" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="236">
   <si>
     <t>User</t>
   </si>
@@ -774,14 +773,7 @@
     <t>犬</t>
   </si>
   <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
-  </si>
-  <si>
-    <t>不填寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>學生</t>
   </si>
 </sst>
 </file>
@@ -2303,46 +2295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4E04D9-3726-47F1-A3E2-D1E002F32363}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CF4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2607,7 +2564,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="16"/>
       <c r="E2" s="4" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>90</v>
@@ -3071,8 +3028,8 @@
       <c r="D4">
         <v>1017</v>
       </c>
-      <c r="AW4">
-        <v>3</v>
+      <c r="AG4" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFA126D-B525-4D99-9288-E53112FAF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FF823-0DC9-4E5E-B122-4166B756F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="590" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="247">
   <si>
     <t>User</t>
   </si>
@@ -774,6 +774,50 @@
   </si>
   <si>
     <t>學生</t>
+  </si>
+  <si>
+    <t>少填資料錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快篩PCR皆為陰性錯誤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試醫師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z987654321</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神疾病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國60/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1246,12 +1290,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CF4"/>
+  <dimension ref="A1:CF6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:CF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2287,6 +2331,302 @@
       <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
     </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="V5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AC5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+    </row>
+    <row r="6" spans="1:84" ht="29" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-4</v>
+      </c>
+      <c r="V6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>-10</v>
+      </c>
+      <c r="AC6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>-9</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>-9</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FF823-0DC9-4E5E-B122-4166B756F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B139A452-6108-48E4-98FA-10C247D892E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="590" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
   <si>
     <t>User</t>
   </si>
@@ -819,12 +819,32 @@
     <t>民國60/06/02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +884,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -913,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -959,6 +986,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,12 +1280,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1290,92 +1323,93 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CF6"/>
+  <dimension ref="A1:CG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:CF6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.69921875" customWidth="1"/>
-    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.3984375" customWidth="1"/>
-    <col min="40" max="40" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.3984375" customWidth="1"/>
-    <col min="43" max="43" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.09765625" customWidth="1"/>
-    <col min="46" max="46" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26" bestFit="1" customWidth="1"/>
-    <col min="49" max="54" width="26" customWidth="1"/>
-    <col min="55" max="56" width="9.59765625" customWidth="1"/>
-    <col min="57" max="57" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="22.19921875" customWidth="1"/>
-    <col min="64" max="64" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="22.19921875" customWidth="1"/>
-    <col min="68" max="68" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="32.59765625" customWidth="1"/>
-    <col min="71" max="71" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="31" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="32.3984375" customWidth="1"/>
-    <col min="78" max="78" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.09765625" customWidth="1"/>
-    <col min="82" max="82" width="12.8984375" customWidth="1"/>
-    <col min="83" max="83" width="14.09765625" customWidth="1"/>
-    <col min="84" max="84" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.69921875" customWidth="1"/>
+    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.3984375" customWidth="1"/>
+    <col min="41" max="41" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" customWidth="1"/>
+    <col min="44" max="44" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.09765625" customWidth="1"/>
+    <col min="47" max="47" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
+    <col min="50" max="55" width="26" customWidth="1"/>
+    <col min="56" max="57" width="9.59765625" customWidth="1"/>
+    <col min="58" max="58" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="22.19921875" customWidth="1"/>
+    <col min="65" max="65" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="22.19921875" customWidth="1"/>
+    <col min="69" max="69" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="32.59765625" customWidth="1"/>
+    <col min="72" max="72" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="31" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="32.3984375" customWidth="1"/>
+    <col min="79" max="79" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.09765625" customWidth="1"/>
+    <col min="83" max="83" width="12.8984375" customWidth="1"/>
+    <col min="84" max="84" width="14.09765625" customWidth="1"/>
+    <col min="85" max="85" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85" ht="43.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1385,263 +1419,268 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1649,191 +1688,192 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="AP2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AR2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="BK2" s="4" t="s">
         <v>112</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BM2" s="4" t="s">
         <v>113</v>
       </c>
       <c r="BN2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BP2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="BR2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BS2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BX2" s="4" t="s">
+      <c r="BY2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BY2" s="4" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BZ2" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CB2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="CC2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="4"/>
+      <c r="CF2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG2" s="4"/>
     </row>
-    <row r="3" spans="1:84" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -1843,251 +1883,254 @@
       <c r="C3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CC3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CD3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CE3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CF3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CG3" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:84" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85" ht="48.5" customHeight="1">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -2097,177 +2140,177 @@
       <c r="C4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="4">
+      <c r="D4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>12345</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>54321</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="4" t="b">
+      <c r="Q4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>-1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>-5</v>
       </c>
-      <c r="S4" s="4" t="b">
+      <c r="T4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>-5</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>-4</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="W4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Y4" s="4" t="b">
+      <c r="Z4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
         <v>-4</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="4">
         <v>-4</v>
       </c>
-      <c r="AC4" s="4" t="b">
+      <c r="AD4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <v>-3</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>-3</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AH4" s="4" t="b">
+      <c r="AI4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="AJ4" s="4" t="b">
-        <v>1</v>
       </c>
       <c r="AK4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AO4" s="4">
         <v>-14</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AP4" s="4">
         <v>-12</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AR4" s="4">
         <v>-14</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AS4" s="4">
         <v>-12</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AU4" s="4">
         <v>-14</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AV4" s="4">
         <v>-12</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AX4" s="4">
         <v>1</v>
       </c>
-      <c r="AX4" s="4" t="b">
+      <c r="AY4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="BA4" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BB4" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="BE4" s="4" t="b">
+      <c r="BF4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="BH4" s="4">
+      <c r="BI4" s="4">
         <v>7</v>
-      </c>
-      <c r="BI4" s="4">
-        <v>-10</v>
       </c>
       <c r="BJ4" s="4">
         <v>-10</v>
@@ -2285,53 +2328,56 @@
         <v>-10</v>
       </c>
       <c r="BO4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BP4" s="4">
         <v>1</v>
       </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="BS4" s="4">
+      <c r="BT4" s="4">
         <v>-10</v>
       </c>
-      <c r="BT4" s="4" t="s">
+      <c r="BU4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4" t="s">
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="BW4" s="4" t="s">
+      <c r="BX4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="BX4" s="4" t="b">
+      <c r="BY4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="BY4" s="4" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BZ4" s="4" t="b">
+      <c r="CA4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="CA4" s="4">
+      <c r="CB4" s="4">
         <v>-10</v>
       </c>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4" t="b">
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="CD4" s="4">
+      <c r="CE4" s="4">
         <v>-10</v>
       </c>
-      <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:85">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2341,96 +2387,98 @@
       <c r="C5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>12345</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>54321</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="4" t="b">
+      <c r="Q5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="b">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>-5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>-4</v>
       </c>
-      <c r="V5" s="4" t="b">
+      <c r="W5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="b">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <v>-4</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <v>-4</v>
       </c>
-      <c r="AC5" s="4" t="b">
+      <c r="AD5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <v>-3</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>-3</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AH5" s="4" t="b">
+      <c r="AI5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AJ5" s="4" t="b">
+      <c r="AK5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AK5" s="4" t="b">
+      <c r="AL5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -2477,8 +2525,9 @@
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
     </row>
-    <row r="6" spans="1:84" ht="29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:85" ht="29">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -2488,98 +2537,100 @@
       <c r="C6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>12345</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>54321</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="P6" s="4" t="b">
+      <c r="Q6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="b">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>-5</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>-4</v>
       </c>
-      <c r="V6" s="4" t="b">
+      <c r="W6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="b">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
         <v>-10</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="4">
         <v>-10</v>
       </c>
-      <c r="AC6" s="4" t="b">
+      <c r="AD6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AE6" s="4">
         <v>-9</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AG6" s="4">
         <v>-9</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AH6" s="4" t="b">
+      <c r="AI6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AJ6" s="4" t="b">
+      <c r="AK6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AK6" s="4" t="b">
+      <c r="AL6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -2626,6 +2677,7 @@
       <c r="CD6" s="4"/>
       <c r="CE6" s="4"/>
       <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2636,15 +2688,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CF4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85" ht="43.5" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2654,265 +2709,270 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2920,191 +2980,192 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="AP2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="AR2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="BK2" s="4" t="s">
         <v>112</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BM2" s="4" t="s">
         <v>113</v>
       </c>
       <c r="BN2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BP2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="BR2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="BS2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BX2" s="4" t="s">
+      <c r="BY2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BY2" s="4" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BZ2" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CB2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="CC2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="4"/>
+      <c r="CF2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG2" s="4"/>
     </row>
-    <row r="3" spans="1:84" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -3114,261 +3175,267 @@
       <c r="C3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CC3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CD3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CE3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CF3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CG3" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4">
         <v>1017</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>235</v>
       </c>
     </row>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B139A452-6108-48E4-98FA-10C247D892E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3665F5-6501-4253-8F74-1F37ABB12934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -758,9 +758,6 @@
     <t>已婚</t>
   </si>
   <si>
-    <t>新北市</t>
-  </si>
-  <si>
     <t>醫院</t>
   </si>
   <si>
@@ -837,6 +834,10 @@
   </si>
   <si>
     <t>False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1326,10 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CG6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="BQ4" sqref="BQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1420,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>9</v>
@@ -1671,7 +1672,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>90</v>
@@ -1884,7 +1885,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>124</v>
@@ -2141,7 +2142,7 @@
         <v>204</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="4">
@@ -2334,32 +2335,32 @@
         <v>1</v>
       </c>
       <c r="BQ4" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="BR4" s="4" t="s">
         <v>218</v>
       </c>
       <c r="BS4" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BT4" s="4">
         <v>-10</v>
       </c>
       <c r="BU4" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="BX4" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="BX4" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="BY4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BZ4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CA4" s="4" t="b">
         <v>1</v>
@@ -2385,28 +2386,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>206</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4">
@@ -2416,10 +2417,10 @@
         <v>54321</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="Q5" s="4" t="b">
         <v>0</v>
@@ -2447,7 +2448,7 @@
         <v>-4</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC5" s="4">
         <v>-4</v>
@@ -2459,7 +2460,7 @@
         <v>-3</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG5" s="4">
         <v>-3</v>
@@ -2471,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK5" s="4" t="b">
         <v>1</v>
@@ -2535,31 +2536,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>206</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M6" s="4">
         <v>12345</v>
@@ -2568,10 +2569,10 @@
         <v>54321</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="Q6" s="4" t="b">
         <v>0</v>
@@ -2599,7 +2600,7 @@
         <v>-10</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC6" s="4">
         <v>-10</v>
@@ -2611,7 +2612,7 @@
         <v>-9</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG6" s="4">
         <v>-9</v>
@@ -2623,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK6" s="4" t="b">
         <v>1</v>
@@ -2690,7 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>9</v>
@@ -2961,7 +2962,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="4" t="s">
@@ -3176,7 +3177,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>124</v>
@@ -3430,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4">
         <v>1017</v>
       </c>
       <c r="AH4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,21 +8,160 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3665F5-6501-4253-8F74-1F37ABB12934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA16919-2B87-4E05-B7D2-37CA6293C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="30" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="清單" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="二林鎮">清單!$D$11</definedName>
+    <definedName name="士林區">清單!$D$3</definedName>
+    <definedName name="中壢區">清單!$D$4</definedName>
+    <definedName name="六甲區">清單!$D$6</definedName>
+    <definedName name="台中市">清單!$C$5</definedName>
+    <definedName name="台北市">清單!$C$3</definedName>
+    <definedName name="台東縣">清單!$C$16</definedName>
+    <definedName name="台南市">清單!$C$6</definedName>
+    <definedName name="安樂區">清單!$D$19</definedName>
+    <definedName name="竹北市">清單!$D$9</definedName>
+    <definedName name="竹田鄉">清單!$D$15</definedName>
+    <definedName name="西_區">清單!$D$21</definedName>
+    <definedName name="宜蘭縣">清單!$C$8</definedName>
+    <definedName name="東引鄉">清單!$D$23</definedName>
+    <definedName name="板橋區">清單!$D$2</definedName>
+    <definedName name="林內鄉">清單!$D$13</definedName>
+    <definedName name="花蓮縣">清單!$C$17</definedName>
+    <definedName name="金門縣">清單!$C$22</definedName>
+    <definedName name="金城鎮">清單!$D$22</definedName>
+    <definedName name="南投縣">清單!$C$12</definedName>
+    <definedName name="屏東縣">清單!$C$15</definedName>
+    <definedName name="美濃區">清單!$D$7</definedName>
+    <definedName name="苑裡鎮">清單!$D$10</definedName>
+    <definedName name="苗栗縣">清單!$C$10</definedName>
+    <definedName name="香山區">清單!$D$20</definedName>
+    <definedName name="桃園市">清單!$C$4</definedName>
+    <definedName name="烏日區">清單!$D$5</definedName>
+    <definedName name="馬公市">清單!$D$18</definedName>
+    <definedName name="高雄市">清單!$C$7</definedName>
+    <definedName name="基隆市">清單!$C$19</definedName>
+    <definedName name="梅山鄉">清單!$D$14</definedName>
+    <definedName name="連江縣">清單!$C$23</definedName>
+    <definedName name="魚池鄉">清單!$D$12</definedName>
+    <definedName name="富里鄉">清單!$D$17</definedName>
+    <definedName name="雲林縣">清單!$C$13</definedName>
+    <definedName name="新北市">清單!$C$2</definedName>
+    <definedName name="新竹市">清單!$C$20</definedName>
+    <definedName name="新竹縣">清單!$C$9</definedName>
+    <definedName name="嘉義市">清單!$C$21</definedName>
+    <definedName name="嘉義縣">清單!$C$14</definedName>
+    <definedName name="彰化縣">清單!$C$11</definedName>
+    <definedName name="澎湖縣">清單!$C$18</definedName>
+    <definedName name="羅東鎮">清單!$D$8</definedName>
+    <definedName name="蘭嶼鄉">清單!$D$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}</author>
+    <author>tc={2CE9F12B-79D9-4C31-9C95-03722197DD5E}</author>
+    <author>tc={5DD0AB56-6240-41AA-809A-E02AA0A0D00D}</author>
+    <author>tc={5FF0D477-AC67-40EA-A458-0E2A8EC08802}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    心肌炎,腦炎,腦病變</t>
+      </text>
+    </comment>
+    <comment ref="AL4" authorId="2" shapeId="0" xr:uid="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </t>
+      </text>
+    </comment>
+    <comment ref="CA4" authorId="3" shapeId="0" xr:uid="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8168730D-F7FA-47B7-B058-A90C694CCBE3}</author>
+    <author>tc={85F05B7C-8173-4F3F-AC23-B20709FAA811}</author>
+    <author>tc={A72581BE-4881-47A5-8ED6-5787E8E0BDCE}</author>
+    <author>tc={546E0267-B543-4EA0-B922-AAF97F9CF889}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    心肌炎,腦炎,腦病變</t>
+      </text>
+    </comment>
+    <comment ref="AL4" authorId="2" shapeId="0" xr:uid="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</t>
+      </text>
+    </comment>
+    <comment ref="CA4" authorId="3" shapeId="0" xr:uid="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="475">
   <si>
     <t>User</t>
   </si>
@@ -313,9 +452,6 @@
   </si>
   <si>
     <t>前者為TRUE需填寫</t>
-  </si>
-  <si>
-    <t>前者選 '其他新冠感染相關併發症' 需填寫</t>
   </si>
   <si>
     <t>前者為TRUE需填寫 可複選
@@ -680,9 +816,6 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>全測試</t>
-  </si>
-  <si>
     <t>19CVS</t>
   </si>
   <si>
@@ -698,15 +831,9 @@
     <t>測試姓名</t>
   </si>
   <si>
-    <t>民國76/06/02</t>
-  </si>
-  <si>
     <t>新竹市</t>
   </si>
   <si>
-    <t>香山區</t>
-  </si>
-  <si>
     <t>呼吸困難,咳嗽,其他新冠感染相關併發症</t>
   </si>
   <si>
@@ -719,21 +846,9 @@
     <t>醫療院所工作者(非醫事人員)</t>
   </si>
   <si>
-    <t>精神疾病</t>
-  </si>
-  <si>
     <t>台中市</t>
   </si>
   <si>
-    <t>USA 美國</t>
-  </si>
-  <si>
-    <t>GBR 英國</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>OTH 其他</t>
   </si>
   <si>
@@ -743,78 +858,13 @@
     <t>其他</t>
   </si>
   <si>
-    <t>測試身分</t>
-  </si>
-  <si>
-    <t>虎山里</t>
-  </si>
-  <si>
-    <t>測試地址</t>
-  </si>
-  <si>
     <t>護理之家</t>
   </si>
   <si>
     <t>已婚</t>
   </si>
   <si>
-    <t>醫院</t>
-  </si>
-  <si>
-    <t>測試</t>
-  </si>
-  <si>
-    <t>具血體液接觸,醫源型,曾食用受汙染的水或食物</t>
-  </si>
-  <si>
-    <t>犬</t>
-  </si>
-  <si>
     <t>學生</t>
-  </si>
-  <si>
-    <t>少填資料錯誤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快篩PCR皆為陰性錯誤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19CVS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試醫師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z987654321</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士林區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神疾病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民國60/06/02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>預期</t>
@@ -829,15 +879,859 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>縣市</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接觸動物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺外依據</t>
+  </si>
+  <si>
+    <t>非本國籍居民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機構類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X光診斷結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢體種類</t>
+  </si>
+  <si>
+    <t>病理報告結果</t>
+  </si>
+  <si>
+    <t>塗片結果</t>
+  </si>
+  <si>
+    <t>PCR結果</t>
+  </si>
+  <si>
+    <t>培養結果</t>
+  </si>
+  <si>
+    <t>菌種鑑定結果</t>
+  </si>
+  <si>
+    <t>醫護及其他醫事人員</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>AFG 阿富汗</t>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管制所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核菌腦膜炎(013)</t>
+  </si>
+  <si>
+    <t>外籍勞工</t>
+  </si>
+  <si>
+    <t>榮譽國民之家</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>陽性1+</t>
+  </si>
+  <si>
+    <t>陽性</t>
+  </si>
+  <si>
+    <t>MTBC陰性</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>ALB 阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋巴結核(014)</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>異常，但無空洞</t>
+  </si>
+  <si>
+    <t>痰</t>
+  </si>
+  <si>
+    <t>已驗未出</t>
+  </si>
+  <si>
+    <t>陽性2+</t>
+  </si>
+  <si>
+    <t>陰性</t>
+  </si>
+  <si>
+    <t>無法判定</t>
+  </si>
+  <si>
+    <t>照服員或個人健康照顧工作人員</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+  </si>
+  <si>
+    <t>ATA 南極洲</t>
+  </si>
+  <si>
+    <t>馬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨及關節結核(015)</t>
+  </si>
+  <si>
+    <t>外籍配偶</t>
+  </si>
+  <si>
+    <t>身心障礙福利</t>
+  </si>
+  <si>
+    <t>喪偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常，且有空洞</t>
+  </si>
+  <si>
+    <t>腦脊髓液</t>
+  </si>
+  <si>
+    <t>排除</t>
+  </si>
+  <si>
+    <t>陽性3+</t>
+  </si>
+  <si>
+    <t>MTBC</t>
+  </si>
+  <si>
+    <t>保母或兒童照顧工作人員</t>
+  </si>
+  <si>
+    <t>DZA 阿爾及利亞</t>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿及生殖系統結核(016)</t>
+  </si>
+  <si>
+    <t>大陸人士</t>
+  </si>
+  <si>
+    <t>托嬰中心</t>
+  </si>
+  <si>
+    <t>離婚</t>
+  </si>
+  <si>
+    <t>異常，無關結核病</t>
+  </si>
+  <si>
+    <t>胸水</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>陽性4+</t>
+  </si>
+  <si>
+    <t>未驗</t>
+  </si>
+  <si>
+    <t>汙染</t>
+  </si>
+  <si>
+    <t>NTM</t>
+  </si>
+  <si>
+    <t>實驗室檢驗人員</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>ASM 美屬薩摩亞(東薩摩亞)</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮膚及眼結核(017)</t>
+  </si>
+  <si>
+    <t>大陸配偶</t>
+  </si>
+  <si>
+    <t>康復之家</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>氣管洗出液</t>
+  </si>
+  <si>
+    <t>獸醫師</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>AND 安道爾(安道拉)</t>
+  </si>
+  <si>
+    <t>猿猴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化道結核(014)</t>
+  </si>
+  <si>
+    <t>少年福利</t>
+  </si>
+  <si>
+    <t>分居</t>
+  </si>
+  <si>
+    <t>陽性培養菌株</t>
+  </si>
+  <si>
+    <t>農業人員</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>AGO 安哥拉</t>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他器官結核(017)</t>
+  </si>
+  <si>
+    <t>矯正機關</t>
+  </si>
+  <si>
+    <t>病理切片</t>
+  </si>
+  <si>
+    <t>Scanty</t>
+  </si>
+  <si>
+    <t>畜牧業人員</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>ATG 安地卡及巴布達 / 安提瓜和巴布達</t>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟粒狀結核(018)</t>
+  </si>
+  <si>
+    <t>育幼院</t>
+  </si>
+  <si>
+    <t>消化去污染後痰</t>
+  </si>
+  <si>
+    <t>未檢</t>
+  </si>
+  <si>
+    <t>林業、漁業人員</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>AZE 亞塞拜然 / 阿塞拜疆</t>
+  </si>
+  <si>
+    <t>鹿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸肋膜結核(000)</t>
+  </si>
+  <si>
+    <t>收容或暫置中心</t>
+  </si>
+  <si>
+    <t>機師及機組員</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>ARG 阿根廷</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽喉結核(000)</t>
+  </si>
+  <si>
+    <t>地勤及機場其他工作人員</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>AUS 澳大利亞(澳洲)</t>
+  </si>
+  <si>
+    <t>鴨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>膀胱癌灌注治療(泌尿系統結核)</t>
+  </si>
+  <si>
+    <t>船舶旅運服務人員</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>AUT 奧地利</t>
+  </si>
+  <si>
+    <t>鵝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位局部病灶)</t>
+  </si>
+  <si>
+    <t>陸上旅運服務人員</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>BHS 巴哈馬</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位同側腋下淋巴結腫大)</t>
+  </si>
+  <si>
+    <t>廚師</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>BHR 巴林</t>
+  </si>
+  <si>
+    <t>鴿子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品製造及加工人員</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>BGD 孟加拉</t>
+  </si>
+  <si>
+    <t>果子狸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲服務人員</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>ARM 亞美尼亞 / 阿美尼亞</t>
+  </si>
+  <si>
+    <t>水產動物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師及教務專業人員</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>BRB 巴貝多 / 巴巴多斯</t>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>BEL 比利時</t>
+  </si>
+  <si>
+    <t>軍人/軍校生</t>
+  </si>
+  <si>
+    <t>BMU 百慕達(薩默斯)</t>
+  </si>
+  <si>
+    <t>人口密集機構受照顧人員</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>BTN 不丹</t>
+  </si>
+  <si>
+    <t>矯正機關戒護人員或收容人</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>BOL 玻利維亞</t>
+  </si>
+  <si>
+    <t>防疫旅宿相關工作人員</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>BIH 波士尼亞與赫塞哥維納(波赫) / 波斯尼亞和黑塞哥維那(波黑)</t>
+  </si>
+  <si>
+    <t>集中檢疫所相關工作人員</t>
+  </si>
+  <si>
+    <t>BWA 波札那 / 博茨瓦納</t>
+  </si>
+  <si>
+    <t>防疫車隊相關工作人員</t>
+  </si>
+  <si>
+    <t>BVT 布威島 / 鮑威特島</t>
+  </si>
+  <si>
+    <t>各行業主管及經理人員、民意代表</t>
+  </si>
+  <si>
+    <t>BRA 巴西</t>
+  </si>
+  <si>
+    <t>科學及工程專業人員</t>
+  </si>
+  <si>
+    <t>BLZ 貝里斯 / 伯利茲</t>
+  </si>
+  <si>
+    <t>商業及行政專業人員</t>
+  </si>
+  <si>
+    <t>IOT 英屬印度洋領地</t>
+  </si>
+  <si>
+    <t>資訊及通訊專業人員</t>
+  </si>
+  <si>
+    <t>SLB 索羅門群島 / 所羅門群島</t>
+  </si>
+  <si>
+    <t>法律、社會及文化專業人員</t>
+  </si>
+  <si>
+    <t>VGB 英屬維京群島 / 英屬處女群島</t>
+  </si>
+  <si>
+    <t>辦公室事務支援人員</t>
+  </si>
+  <si>
+    <t>BRN 汶萊(文萊)</t>
+  </si>
+  <si>
+    <t>服務及銷售工作人員</t>
+  </si>
+  <si>
+    <t>BGR 保加利亞</t>
+  </si>
+  <si>
+    <t>技藝工作、機械設備操作及組裝人員</t>
+  </si>
+  <si>
+    <t>MMR 緬甸</t>
+  </si>
+  <si>
+    <t>家管</t>
+  </si>
+  <si>
+    <t>OTH 其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>無業</t>
+  </si>
+  <si>
+    <t>不詳</t>
+  </si>
+  <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>民國70/06/02</t>
+  </si>
+  <si>
+    <t>前者選 '其他新冠感染相關併發症' 需填寫
+可複選並,分隔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
+    <t>前者為TRUE需填寫
+可複選並,分隔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新北市</t>
+    <t>居住縣市</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>板橋區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自強里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏日區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>六甲區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爺里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美濃區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>東門里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹林里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹北市</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿場里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑裡鎮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西平里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二林鎮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>林北村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅山鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹田鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二崙村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭嶼鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅頭村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>富里鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>明里村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬公市</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>東文里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安樂區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三民里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海山里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西　區</t>
+  </si>
+  <si>
+    <t>培元里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城鎮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北門里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>東引鄉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂華村</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫低下狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>懷孕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性病其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性症狀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性症狀有'免疫低下狀態'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性症狀有 '其他'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性症狀有 '懷孕'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMMUNOCOMPROMISED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREGNANT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_CHRONIC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富里鄉</t>
+  </si>
+  <si>
+    <t>明里村</t>
+  </si>
+  <si>
+    <t>猿猴</t>
+  </si>
+  <si>
+    <t>醫源型,與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHER_CHRONIC_SYMPTOMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神疾病,糖尿病,免疫低下狀態,懷孕,其他：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +1739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,12 +1761,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
@@ -891,6 +1779,20 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -941,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -968,9 +1870,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -983,16 +1882,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,6 +1921,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="李長翰" id="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" userId="S::409630398@o365.tku.edu.tw::aeda2b7d-9244-4029-95e7-9abb1c8adcaa" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,6 +2190,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
+    <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
+  </threadedComment>
+  <threadedComment ref="AA4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
+    <text>心肌炎,腦炎,腦病變</text>
+  </threadedComment>
+  <threadedComment ref="AL4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
+    <text xml:space="preserve">精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </text>
+  </threadedComment>
+  <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
+    <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
+  </threadedComment>
+  <threadedComment ref="AA4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
+    <text>心肌炎,腦炎,腦病變</text>
+  </threadedComment>
+  <threadedComment ref="AL4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
+    <text>精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</text>
+  </threadedComment>
+  <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
@@ -1322,22 +2275,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CG6"/>
+  <dimension ref="A1:CJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CB1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="BQ4" sqref="BQ4"/>
+      <selection pane="bottomLeft" activeCell="CC4" sqref="CC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="12" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="12" customWidth="1"/>
     <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -1348,70 +2301,72 @@
     <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.796875" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.69921875" customWidth="1"/>
-    <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.3984375" customWidth="1"/>
-    <col min="41" max="41" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.3984375" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="18"/>
+    <col min="18" max="18" width="9.59765625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.796875" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.69921875" customWidth="1"/>
+    <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="24.09765625" customWidth="1"/>
+    <col min="42" max="42" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.09765625" customWidth="1"/>
-    <col min="47" max="47" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="55" width="26" customWidth="1"/>
-    <col min="56" max="57" width="9.59765625" customWidth="1"/>
-    <col min="58" max="58" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="22.19921875" customWidth="1"/>
-    <col min="65" max="65" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="22.19921875" customWidth="1"/>
-    <col min="69" max="69" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="32.59765625" customWidth="1"/>
-    <col min="72" max="72" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="31" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="32.3984375" customWidth="1"/>
-    <col min="79" max="79" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.09765625" customWidth="1"/>
-    <col min="83" max="83" width="12.8984375" customWidth="1"/>
-    <col min="84" max="84" width="14.09765625" customWidth="1"/>
-    <col min="85" max="85" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.3984375" customWidth="1"/>
+    <col min="46" max="46" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.3984375" customWidth="1"/>
+    <col min="49" max="49" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.09765625" customWidth="1"/>
+    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="26" customWidth="1"/>
+    <col min="61" max="61" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="22.19921875" customWidth="1"/>
+    <col min="68" max="68" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="22.19921875" customWidth="1"/>
+    <col min="72" max="72" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="32.59765625" customWidth="1"/>
+    <col min="75" max="75" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="31" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="32.3984375" customWidth="1"/>
+    <col min="82" max="82" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.09765625" customWidth="1"/>
+    <col min="86" max="86" width="12.8984375" customWidth="1"/>
+    <col min="87" max="87" width="14.09765625" customWidth="1"/>
+    <col min="88" max="88" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="43.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:88" ht="43.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1420,10 +2375,10 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1456,225 +2411,234 @@
       <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:85" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:88" s="2" customFormat="1" ht="48.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1689,179 +2653,179 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="Z2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AP2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AU2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="BA2" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>92</v>
@@ -1872,836 +2836,594 @@
       <c r="CF2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CG2" s="4"/>
+      <c r="CG2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ2" s="4"/>
     </row>
-    <row r="3" spans="1:85" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AC3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AG3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AI3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BC3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="CC3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CD3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CE3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CF3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CG3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CD3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CI3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CG3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:85" ht="48.5" customHeight="1">
-      <c r="A4" s="14">
+      <c r="H4" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="M4" s="19">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="19">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="T4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="19">
+        <v>-5</v>
+      </c>
+      <c r="V4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>-5</v>
+      </c>
+      <c r="X4" s="19">
+        <v>-4</v>
+      </c>
+      <c r="Y4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="N4" s="4">
-        <v>54321</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="4" t="b">
+      <c r="AB4" s="15" t="b">
         <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="T4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="V4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="W4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="AC4" s="4">
         <v>-4</v>
       </c>
-      <c r="AD4" s="4" t="b">
+      <c r="AD4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AF4" s="15" t="b">
         <v>1</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="AG4" s="4">
         <v>-3</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI4" s="4" t="b">
+        <v>211</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AP4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AK4" s="4" t="b">
+      <c r="BK4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="CB4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="4" t="b">
+      <c r="CC4" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="CD4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AZ4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI4" s="4">
-        <v>7</v>
-      </c>
-      <c r="BJ4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BK4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BL4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BM4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BN4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BO4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BP4" s="4">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BT4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BU4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BX4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="BY4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="CA4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="4">
-        <v>-10</v>
-      </c>
+      <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-    </row>
-    <row r="5" spans="1:85">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="N5" s="4">
-        <v>54321</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="4" t="b">
+      <c r="CG4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4">
-        <v>-5</v>
-      </c>
-      <c r="V5" s="4">
-        <v>-4</v>
-      </c>
-      <c r="W5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>-4</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>-4</v>
-      </c>
-      <c r="AD5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="4"/>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="4"/>
-      <c r="BV5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="4"/>
-      <c r="BY5" s="4"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="4"/>
-    </row>
-    <row r="6" spans="1:85" ht="29">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="4">
-        <v>12345</v>
-      </c>
-      <c r="N6" s="4">
-        <v>54321</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>-5</v>
-      </c>
-      <c r="V6" s="4">
-        <v>-4</v>
-      </c>
-      <c r="W6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>-10</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>-10</v>
-      </c>
-      <c r="AD6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>-9</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>-9</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="BR6" s="4"/>
-      <c r="BS6" s="4"/>
-      <c r="BT6" s="4"/>
-      <c r="BU6" s="4"/>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BX6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AK4 Y4 AB4 AF4 AP4:AQ4 BD4 BI4 CB4 CD4 CG4" xr:uid="{AF4C0381-D66A-4FE8-966E-12BE73088DA5}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{4E286A72-0E01-46D1-B1F1-CDA5888222C1}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{D1B2830A-4D8F-487A-99F2-ECF7204CF20D}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{DE2BB51D-13C5-4581-9F22-932E0EE4D0EE}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{1096B837-18CF-49E6-835F-8776C17A899F}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4 BC4" xr:uid="{6FF3BA71-5B15-49BD-B0BC-542338A8EA76}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4" xr:uid="{87BB3D9A-6C65-4E14-B738-F583D919DCBE}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4" xr:uid="{59F3719E-CB18-41FF-B76B-1B01961C5B2E}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{15ACE5BF-E724-4235-A8AC-9BA84675CB0E}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96D8A039-A44C-4979-994A-4A2D29EE062E}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>BU4 AS4 O4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56D8667D-EB84-422E-B6C4-29579D347D27}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AJ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61915E61-2302-41B3-9082-599967063B13}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AV4 AY4 BE4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB06F5AC-DB4D-4E3C-8D5B-2C82008775E6}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>BG4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80FC0BBF-C97A-460A-8CC7-94BB90EBC256}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>BJ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{767F2C75-1629-4D8F-9998-F11366F7F55D}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BV4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4B02CCC-9E78-41E4-827B-045F1C9F43E1}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>CC4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D169778B-8A93-42B1-AC3F-54A0F57E9592}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BK4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CG4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="11.3984375" customWidth="1"/>
+    <col min="40" max="40" width="9.5" customWidth="1"/>
+    <col min="41" max="41" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="43.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:88" ht="43.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2710,10 +3432,10 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -2746,414 +3468,427 @@
       <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:85" s="2" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:88" s="2" customFormat="1" ht="47.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="Z2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="AG2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="AL2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AP2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AU2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="BA2" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CC2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>92</v>
@@ -3164,281 +3899,1378 @@
       <c r="CF2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CG2" s="4"/>
+      <c r="CG2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ2" s="4"/>
     </row>
-    <row r="3" spans="1:85" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>123</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1121</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4" xr:uid="{67A69E04-73FC-44FB-931B-0173AEEBF11B}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4" xr:uid="{031B015D-72D7-47D5-9438-2595A82365C4}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4 BC4" xr:uid="{B395D944-2E95-42BF-AA93-F67CFC9F9262}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{9CBC689B-D7DA-4282-B95E-5106742832E2}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{611834FB-8052-450D-923E-7138DCCCFEA4}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{18591B51-AF0D-4964-BCDC-604568101707}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{1603CD7C-9111-4ED5-AE8D-F9837A6AF7CB}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AK4 Y4 AB4 AF4 AP4:AQ4 BD4 BI4 CB4 CD4 CG4" xr:uid="{2CF2537F-D972-4BF7-9E4B-D4CF285F9E5B}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{8EF7C3A6-29A6-47BC-9DED-A2DF1C4BF2EA}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C623C58B-BDBB-49FB-9ED1-A2F96FB92BF6}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BK4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB68C6E-06D9-408D-A90F-BD7206901368}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>CC4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D250364-163A-4ACC-AD25-67BE94FDDF3E}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BV4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{119040D8-2E3D-4ACF-973E-AFC73AAF1971}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>BJ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5789953-058B-4F11-875F-1FEDBC3E5C0F}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>BG4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F9782DE-9801-486F-B26C-BA855272BA63}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AV4 AY4 BE4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAC3F484-8104-44BD-AB82-7A4816451904}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AJ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C80DE5E-3227-4135-AE78-BE6AD9323EA8}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>BU4 AS4 O4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50494A8F-33C5-48A7-89A0-F393A862DF8F}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.5">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>415</v>
+      </c>
       <c r="D3" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BT3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BU3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BZ3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="CA3" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CC3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>203</v>
+        <v>416</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>263</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+    <row r="4" spans="1:18">
+      <c r="A4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>417</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4">
-        <v>1017</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>234</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>261</v>
+      </c>
+      <c r="R4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>292</v>
+      </c>
+      <c r="R5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>291</v>
+      </c>
+      <c r="R6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" t="s">
+        <v>311</v>
+      </c>
+      <c r="O7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" t="s">
+        <v>317</v>
+      </c>
+      <c r="M8" t="s">
+        <v>318</v>
+      </c>
+      <c r="O8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="M9" t="s">
+        <v>326</v>
+      </c>
+      <c r="O9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J10" t="s">
+        <v>333</v>
+      </c>
+      <c r="M10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA16919-2B87-4E05-B7D2-37CA6293C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AEC97-2E34-4F41-B969-20ADA00FDAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="30" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="476">
   <si>
     <t>User</t>
   </si>
@@ -452,13 +452,6 @@
   </si>
   <si>
     <t>前者為TRUE需填寫</t>
-  </si>
-  <si>
-    <t>前者為TRUE需填寫 可複選
-輸入1~3
-1 國內旅遊史
-2 國外旅遊史
-3 國外居住史</t>
   </si>
   <si>
     <t>旅遊史: 1
@@ -1732,6 +1725,14 @@
   </si>
   <si>
     <t>精神疾病,糖尿病,免疫低下狀態,懷孕,其他：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2279,10 +2280,10 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="CC4" sqref="CC4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2376,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>9</v>
@@ -2478,16 +2479,16 @@
         <v>39</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AM1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>41</v>
@@ -2636,7 +2637,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>90</v>
@@ -2678,10 +2679,10 @@
         <v>92</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>92</v>
@@ -2711,13 +2712,13 @@
         <v>96</v>
       </c>
       <c r="AM2" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>92</v>
@@ -2726,51 +2727,51 @@
         <v>92</v>
       </c>
       <c r="AR2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="BA2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI2" s="4" t="s">
         <v>92</v>
@@ -2778,40 +2779,40 @@
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
       <c r="BL2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BQ2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BT2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BU2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="BX2" s="4"/>
       <c r="BY2" s="4" t="s">
@@ -2819,13 +2820,13 @@
       </c>
       <c r="BZ2" s="4"/>
       <c r="CA2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CB2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>92</v>
@@ -2849,268 +2850,268 @@
     </row>
     <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="19" t="s">
+      <c r="T3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CC3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CD3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CE3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CF3" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="CG3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="CH3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="CJ3" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
@@ -3120,31 +3121,33 @@
       <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>474</v>
+      </c>
       <c r="D4" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15">
         <v>5</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>207</v>
-      </c>
       <c r="L4" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M4" s="19">
         <v>12345</v>
@@ -3153,13 +3156,13 @@
         <v>54321</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P4" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>469</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>470</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="15" t="b">
@@ -3184,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="AB4" s="15" t="b">
         <v>1</v>
@@ -3196,7 +3199,7 @@
         <v>-4</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE4" s="4">
         <v>-4</v>
@@ -3208,28 +3211,28 @@
         <v>-3</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI4" s="4">
         <v>-3</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK4" s="15" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN4" s="4">
         <v>8</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AP4" s="15" t="b">
         <v>1</v>
@@ -3241,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="AS4" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AT4" s="4">
         <v>-14</v>
@@ -3255,29 +3258,33 @@
       <c r="AY4" s="19"/>
       <c r="AZ4" s="19"/>
       <c r="BA4" s="19"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
+      <c r="BB4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>2</v>
+      </c>
       <c r="BD4" s="15" t="b">
         <v>0</v>
       </c>
       <c r="BE4" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="BF4" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="BG4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BH4" s="4"/>
       <c r="BI4" s="15" t="b">
         <v>1</v>
       </c>
       <c r="BJ4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK4" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
@@ -3295,13 +3302,13 @@
       <c r="BY4" s="4"/>
       <c r="BZ4" s="4"/>
       <c r="CA4" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="CB4" s="15" t="b">
         <v>1</v>
       </c>
       <c r="CC4" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CD4" s="15" t="b">
         <v>0</v>
@@ -3410,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BG2" sqref="BG2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3433,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>9</v>
@@ -3538,13 +3545,13 @@
         <v>40</v>
       </c>
       <c r="AM1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>41</v>
@@ -3693,7 +3700,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>90</v>
@@ -3741,10 +3748,10 @@
         <v>92</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>92</v>
@@ -3774,13 +3781,13 @@
         <v>96</v>
       </c>
       <c r="AM2" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>92</v>
@@ -3789,51 +3796,51 @@
         <v>92</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AS2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="BA2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI2" s="4" t="s">
         <v>92</v>
@@ -3841,40 +3848,40 @@
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
       <c r="BL2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BQ2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BT2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BU2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="BX2" s="4"/>
       <c r="BY2" s="4" t="s">
@@ -3882,13 +3889,13 @@
       </c>
       <c r="BZ2" s="4"/>
       <c r="CA2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CB2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CD2" s="4" t="s">
         <v>92</v>
@@ -3912,268 +3919,268 @@
     </row>
     <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="19" t="s">
+      <c r="T3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CB3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CC3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CD3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CE3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CF3" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="CG3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="CH3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="CJ3" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
@@ -4185,7 +4192,7 @@
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" s="15">
         <v>1121</v>
@@ -4396,865 +4403,865 @@
         <v>38</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" t="s">
         <v>231</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>232</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>234</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>236</v>
-      </c>
-      <c r="R1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" t="s">
         <v>242</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>243</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>244</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>245</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>246</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>247</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>248</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>249</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>250</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R2" t="s">
         <v>251</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>251</v>
-      </c>
-      <c r="R2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" t="s">
         <v>256</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>257</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" t="s">
         <v>258</v>
       </c>
-      <c r="J3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>259</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>260</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>261</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>262</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R3" t="s">
         <v>263</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" t="s">
         <v>269</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>270</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>271</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>272</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>273</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>274</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>275</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>276</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R4" t="s">
         <v>277</v>
-      </c>
-      <c r="P4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>261</v>
-      </c>
-      <c r="R4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" t="s">
         <v>282</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>283</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>284</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>285</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>286</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>287</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>288</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>289</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>290</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>292</v>
-      </c>
-      <c r="R5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" t="s">
         <v>298</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>299</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>300</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>301</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>302</v>
       </c>
-      <c r="M6" t="s">
-        <v>303</v>
-      </c>
       <c r="O6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" t="s">
         <v>307</v>
       </c>
-      <c r="G7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" t="s">
         <v>308</v>
       </c>
-      <c r="I7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>309</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>310</v>
       </c>
-      <c r="M7" t="s">
-        <v>311</v>
-      </c>
       <c r="O7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="H8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
         <v>316</v>
       </c>
-      <c r="I8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>317</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>318</v>
-      </c>
-      <c r="O8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="H9" t="s">
         <v>323</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>324</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>325</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>326</v>
-      </c>
-      <c r="O9" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="H10" t="s">
         <v>331</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>332</v>
       </c>
-      <c r="J10" t="s">
-        <v>333</v>
-      </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="H11" t="s">
         <v>337</v>
-      </c>
-      <c r="H11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="H12" t="s">
         <v>342</v>
-      </c>
-      <c r="H12" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="H13" t="s">
         <v>347</v>
-      </c>
-      <c r="H13" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="H14" t="s">
         <v>352</v>
-      </c>
-      <c r="H14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>356</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>373</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>375</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>376</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>378</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>379</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>381</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>382</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -5264,7 +5271,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AEC97-2E34-4F41-B969-20ADA00FDAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3841549-9860-4A79-BE81-FE6B77DBB3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="180" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,10 @@
     <author>tc={2CE9F12B-79D9-4C31-9C95-03722197DD5E}</author>
     <author>tc={5DD0AB56-6240-41AA-809A-E02AA0A0D00D}</author>
     <author>tc={5FF0D477-AC67-40EA-A458-0E2A8EC08802}</author>
+    <author>tc={4BD03B68-20BC-4EC0-B36B-A47024C6F216}</author>
+    <author>tc={27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}</author>
+    <author>tc={71DCC7AB-355E-4570-B137-55724AE0CBD6}</author>
+    <author>tc={29A8E33F-04DE-4246-9E65-5E44E117B9A0}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
@@ -110,6 +114,39 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="5" shapeId="0" xr:uid="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    心肌炎,腦炎,腦病變</t>
+      </text>
+    </comment>
+    <comment ref="AL5" authorId="6" shapeId="0" xr:uid="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
+      <text>
+        <t xml:space="preserve">[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </t>
+      </text>
+    </comment>
+    <comment ref="CA5" authorId="7" shapeId="0" xr:uid="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -121,6 +158,10 @@
     <author>tc={85F05B7C-8173-4F3F-AC23-B20709FAA811}</author>
     <author>tc={A72581BE-4881-47A5-8ED6-5787E8E0BDCE}</author>
     <author>tc={546E0267-B543-4EA0-B922-AAF97F9CF889}</author>
+    <author>tc={649021B0-0A1F-406E-A78E-19DCC7D072D1}</author>
+    <author>tc={6841BBF9-1B1E-4830-B8BD-86431A8FDD45}</author>
+    <author>tc={6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}</author>
+    <author>tc={E0DCBF48-8C08-4353-B1D0-389B5CD8E882}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
@@ -156,12 +197,45 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="5" shapeId="0" xr:uid="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    心肌炎,腦炎,腦病變</t>
+      </text>
+    </comment>
+    <comment ref="AL5" authorId="6" shapeId="0" xr:uid="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</t>
+      </text>
+    </comment>
+    <comment ref="CA5" authorId="7" shapeId="0" xr:uid="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="512">
   <si>
     <t>User</t>
   </si>
@@ -1728,19 +1802,152 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>TEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安樂區</t>
+  </si>
+  <si>
+    <t>三民里</t>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填寫1~5/不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國60/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國60/06/01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內鄉</t>
+  </si>
+  <si>
+    <t>林北村</t>
+  </si>
+  <si>
     <t>全測試</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TEST</t>
+    <t>必填</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>霍亂</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,8 +2003,27 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,6 +2039,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,7 +2076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1854,46 +2086,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1906,6 +2102,79 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,6 +2475,19 @@
   <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
+    <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
+  </threadedComment>
+  <threadedComment ref="AA5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
+    <text>心肌炎,腦炎,腦病變</text>
+  </threadedComment>
+  <threadedComment ref="AL5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
+    <text xml:space="preserve">精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </text>
+  </threadedComment>
+  <threadedComment ref="CA5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2222,6 +2504,19 @@
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</text>
   </threadedComment>
   <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
+  </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
+    <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
+  </threadedComment>
+  <threadedComment ref="AA5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
+    <text>心肌炎,腦炎,腦病變</text>
+  </threadedComment>
+  <threadedComment ref="AL5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
+    <text>精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
+心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</text>
+  </threadedComment>
+  <threadedComment ref="CA5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
 </ThreadedComments>
@@ -2278,20 +2573,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CJ4"/>
+  <dimension ref="A1:CJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -2302,9 +2597,9 @@
     <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" style="18"/>
-    <col min="18" max="18" width="9.59765625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" style="6"/>
+    <col min="18" max="18" width="9.59765625" style="4" customWidth="1"/>
     <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.796875" customWidth="1"/>
@@ -2366,990 +2661,1143 @@
     <col min="88" max="88" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:88" s="19" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:88" s="2" customFormat="1" ht="48.5" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
+    <row r="2" spans="1:88" s="23" customFormat="1" ht="48.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="4" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4" t="s">
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BP2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BS2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BV2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4" t="s">
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4" t="s">
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CB2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="CC2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CD2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CE2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="4" t="s">
+      <c r="CF2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CG2" s="4" t="s">
+      <c r="CG2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="CI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="4"/>
+      <c r="CJ2" s="7"/>
     </row>
-    <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BS3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BT3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BU3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BV3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BW3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BX3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BY3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CA3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CB3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CC3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CD3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CE3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CF3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CG3" s="4" t="s">
+      <c r="CG3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CH3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CI3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CJ3" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A4" s="13">
+    <row r="4" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>5</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="7">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="7">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>-5</v>
+      </c>
+      <c r="V4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>-5</v>
+      </c>
+      <c r="X4" s="7">
+        <v>-4</v>
+      </c>
+      <c r="Y4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>-4</v>
+      </c>
+      <c r="AF4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>-3</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>-3</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="BC4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="CB4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="CD4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H5" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="M4" s="19">
+      <c r="L5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M5" s="7">
         <v>12345</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N5" s="7">
         <v>54321</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="15" t="b">
+      <c r="O5" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="19">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="19">
-        <v>-5</v>
-      </c>
-      <c r="V4" s="15" t="b">
+      <c r="W5" s="7">
+        <v>-30</v>
+      </c>
+      <c r="X5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="Y5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="19">
-        <v>-5</v>
-      </c>
-      <c r="X4" s="19">
-        <v>-4</v>
-      </c>
-      <c r="Y4" s="15" t="b">
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB4" s="15" t="b">
+      <c r="AC5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>-20</v>
+      </c>
+      <c r="AF5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AG5" s="7">
+        <v>-19</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AE4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="AF4" s="15" t="b">
+      <c r="AI5" s="7">
+        <v>-19</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AG4" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="BC4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="CB4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="CD4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
+      <c r="AR5" s="7">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>-40</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>-40</v>
+      </c>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7"/>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="7"/>
+      <c r="CA5" s="7"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="7"/>
+      <c r="CD5" s="21"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="7"/>
+      <c r="CG5" s="21"/>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7"/>
+      <c r="CJ5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AK4 Y4 AB4 AF4 AP4:AQ4 BD4 BI4 CB4 CD4 CG4" xr:uid="{AF4C0381-D66A-4FE8-966E-12BE73088DA5}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AK4:AK5 Y4:Y5 AB4:AB5 AF4:AF5 AP4:AQ5 BD4:BD5 BI4:BI5 CB4:CB5 CD4:CD5 CG4:CG5" xr:uid="{AF4C0381-D66A-4FE8-966E-12BE73088DA5}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{4E286A72-0E01-46D1-B1F1-CDA5888222C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{4E286A72-0E01-46D1-B1F1-CDA5888222C1}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{D1B2830A-4D8F-487A-99F2-ECF7204CF20D}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{DE2BB51D-13C5-4581-9F22-932E0EE4D0EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{DE2BB51D-13C5-4581-9F22-932E0EE4D0EE}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{1096B837-18CF-49E6-835F-8776C17A899F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{1096B837-18CF-49E6-835F-8776C17A899F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4 BC4" xr:uid="{6FF3BA71-5B15-49BD-B0BC-542338A8EA76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4:AR5 BC4:BC5" xr:uid="{6FF3BA71-5B15-49BD-B0BC-542338A8EA76}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4" xr:uid="{87BB3D9A-6C65-4E14-B738-F583D919DCBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5" xr:uid="{87BB3D9A-6C65-4E14-B738-F583D919DCBE}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4" xr:uid="{59F3719E-CB18-41FF-B76B-1B01961C5B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5" xr:uid="{59F3719E-CB18-41FF-B76B-1B01961C5B2E}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{15ACE5BF-E724-4235-A8AC-9BA84675CB0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{15ACE5BF-E724-4235-A8AC-9BA84675CB0E}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3358,54 +3806,66 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96D8A039-A44C-4979-994A-4A2D29EE062E}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4 AS4 O4</xm:sqref>
+          <xm:sqref>BU4:BU5 AS4:AS5 O4:O5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56D8667D-EB84-422E-B6C4-29579D347D27}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ4</xm:sqref>
+          <xm:sqref>AJ4:AJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61915E61-2302-41B3-9082-599967063B13}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4 AY4 BE4</xm:sqref>
+          <xm:sqref>AV4:AV5 AY4:AY5 BE4:BE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB06F5AC-DB4D-4E3C-8D5B-2C82008775E6}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BG4</xm:sqref>
+          <xm:sqref>BG4:BG5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80FC0BBF-C97A-460A-8CC7-94BB90EBC256}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BJ4</xm:sqref>
+          <xm:sqref>BJ4:BJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{767F2C75-1629-4D8F-9998-F11366F7F55D}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BV4</xm:sqref>
+          <xm:sqref>BV4:BV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4B02CCC-9E78-41E4-827B-045F1C9F43E1}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>CC4</xm:sqref>
+          <xm:sqref>CC4:CC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D169778B-8A93-42B1-AC3F-54A0F57E9592}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4</xm:sqref>
+          <xm:sqref>BK4:BK5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D07D9A0-FF80-4FB5-BA59-FB8A82A5B2B2}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CAE37B9-5896-487C-9092-E0786C4AE7B5}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3415,14 +3875,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CJ4"/>
+  <dimension ref="A1:CJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="3" max="3" width="21.59765625" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
     <col min="39" max="39" width="11.3984375" customWidth="1"/>
     <col min="40" max="40" width="9.5" customWidth="1"/>
@@ -3430,887 +3891,1009 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:88" s="2" customFormat="1" ht="47.5" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="4" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4" t="s">
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4" t="s">
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BP2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BS2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BV2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4" t="s">
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4" t="s">
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CB2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="CC2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CD2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CE2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="4" t="s">
+      <c r="CF2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CG2" s="4" t="s">
+      <c r="CG2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="CI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="4"/>
+      <c r="CJ2" s="7"/>
     </row>
     <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BS3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BT3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BU3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BV3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BW3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BX3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BY3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CA3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CB3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CC3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CD3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CE3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CF3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CG3" s="4" t="s">
+      <c r="CG3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CH3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CI3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CJ3" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="15">
-        <v>1121</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4">
+      <c r="E4" s="32">
+        <v>45301</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="7">
         <v>3</v>
       </c>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="15"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="15"/>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>-40</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>-40</v>
+      </c>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="21"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="21"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="21"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="21"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="32">
+        <v>45301</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7"/>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="7"/>
+      <c r="CA5" s="7"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="7"/>
+      <c r="CD5" s="21"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="7"/>
+      <c r="CG5" s="21"/>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7"/>
+      <c r="CJ5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4" xr:uid="{67A69E04-73FC-44FB-931B-0173AEEBF11B}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5" xr:uid="{67A69E04-73FC-44FB-931B-0173AEEBF11B}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4" xr:uid="{031B015D-72D7-47D5-9438-2595A82365C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5" xr:uid="{031B015D-72D7-47D5-9438-2595A82365C4}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4 BC4" xr:uid="{B395D944-2E95-42BF-AA93-F67CFC9F9262}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4:AR5 BC4:BC5" xr:uid="{B395D944-2E95-42BF-AA93-F67CFC9F9262}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{9CBC689B-D7DA-4282-B95E-5106742832E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{9CBC689B-D7DA-4282-B95E-5106742832E2}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{611834FB-8052-450D-923E-7138DCCCFEA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{611834FB-8052-450D-923E-7138DCCCFEA4}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{18591B51-AF0D-4964-BCDC-604568101707}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{1603CD7C-9111-4ED5-AE8D-F9837A6AF7CB}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 V4 AK4 Y4 AB4 AF4 AP4:AQ4 BD4 BI4 CB4 CD4 CG4" xr:uid="{2CF2537F-D972-4BF7-9E4B-D4CF285F9E5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AK4:AK5 Y4:Y5 AB4:AB5 AF4:AF5 AP4:AQ5 BD4:BD5 BI4:BI5 CB4:CB5 CD4:CD5 CG4:CG5" xr:uid="{2CF2537F-D972-4BF7-9E4B-D4CF285F9E5B}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{8EF7C3A6-29A6-47BC-9DED-A2DF1C4BF2EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{8EF7C3A6-29A6-47BC-9DED-A2DF1C4BF2EA}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4318,54 +4901,66 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C623C58B-BDBB-49FB-9ED1-A2F96FB92BF6}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4</xm:sqref>
+          <xm:sqref>BK4:BK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB68C6E-06D9-408D-A90F-BD7206901368}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>CC4</xm:sqref>
+          <xm:sqref>CC4:CC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D250364-163A-4ACC-AD25-67BE94FDDF3E}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BV4</xm:sqref>
+          <xm:sqref>BV4:BV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{119040D8-2E3D-4ACF-973E-AFC73AAF1971}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BJ4</xm:sqref>
+          <xm:sqref>BJ4:BJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5789953-058B-4F11-875F-1FEDBC3E5C0F}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BG4</xm:sqref>
+          <xm:sqref>BG4:BG5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F9782DE-9801-486F-B26C-BA855272BA63}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4 AY4 BE4</xm:sqref>
+          <xm:sqref>AV4:AV5 AY4:AY5 BE4:BE5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAC3F484-8104-44BD-AB82-7A4816451904}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ4</xm:sqref>
+          <xm:sqref>AJ4:AJ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C80DE5E-3227-4135-AE78-BE6AD9323EA8}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4 AS4 O4</xm:sqref>
+          <xm:sqref>BU4:BU5 AS4:AS5 O4:O5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E0E9EFC-64B8-4EB3-816B-0DC6ED9A5B01}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAD03FF1-088C-43C5-ABE8-00188AC3821A}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4375,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50494A8F-33C5-48A7-89A0-F393A862DF8F}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4396,43 +4991,45 @@
     <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="6" t="s">
         <v>225</v>
       </c>
       <c r="H1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="6" t="s">
         <v>230</v>
       </c>
       <c r="M1" t="s">
@@ -4453,27 +5050,33 @@
       <c r="R1" t="s">
         <v>236</v>
       </c>
+      <c r="S1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="6" t="s">
         <v>241</v>
       </c>
       <c r="H2" t="s">
@@ -4509,27 +5112,33 @@
       <c r="R2" t="s">
         <v>251</v>
       </c>
+      <c r="S2" t="s">
+        <v>491</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="6" t="s">
         <v>255</v>
       </c>
       <c r="H3" t="s">
@@ -4565,27 +5174,33 @@
       <c r="R3" t="s">
         <v>263</v>
       </c>
+      <c r="S3" t="s">
+        <v>493</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="6" t="s">
         <v>268</v>
       </c>
       <c r="H4" t="s">
@@ -4621,27 +5236,33 @@
       <c r="R4" t="s">
         <v>277</v>
       </c>
+      <c r="S4" t="s">
+        <v>495</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="6" t="s">
         <v>281</v>
       </c>
       <c r="H5" t="s">
@@ -4677,27 +5298,33 @@
       <c r="R5" t="s">
         <v>292</v>
       </c>
+      <c r="S5" t="s">
+        <v>497</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="6" t="s">
         <v>297</v>
       </c>
       <c r="H6" t="s">
@@ -4724,24 +5351,30 @@
       <c r="R6" t="s">
         <v>215</v>
       </c>
+      <c r="S6" t="s">
+        <v>499</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="6" t="s">
         <v>306</v>
       </c>
       <c r="G7" t="s">
@@ -4768,24 +5401,30 @@
       <c r="Q7" t="s">
         <v>215</v>
       </c>
+      <c r="S7" t="s">
+        <v>501</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="6" t="s">
         <v>314</v>
       </c>
       <c r="H8" t="s">
@@ -4803,24 +5442,30 @@
       <c r="O8" t="s">
         <v>318</v>
       </c>
+      <c r="S8" t="s">
+        <v>503</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:20">
+      <c r="A9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="6" t="s">
         <v>322</v>
       </c>
       <c r="H9" t="s">
@@ -4835,24 +5480,30 @@
       <c r="O9" t="s">
         <v>326</v>
       </c>
+      <c r="S9" t="s">
+        <v>505</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="6" t="s">
         <v>330</v>
       </c>
       <c r="H10" t="s">
@@ -4864,420 +5515,438 @@
       <c r="M10" t="s">
         <v>215</v>
       </c>
+      <c r="S10" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>507</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="6" t="s">
         <v>336</v>
       </c>
       <c r="H11" t="s">
         <v>337</v>
       </c>
+      <c r="S11" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:20">
+      <c r="A12" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="6" t="s">
         <v>341</v>
       </c>
       <c r="H12" t="s">
         <v>342</v>
       </c>
+      <c r="S12" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:20">
+      <c r="A13" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="6" t="s">
         <v>346</v>
       </c>
       <c r="H13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="6" t="s">
         <v>351</v>
       </c>
       <c r="H14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="6" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="6" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="6" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3841549-9860-4A79-BE81-FE6B77DBB3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35EFA3D-4CB8-4F08-8170-6FBA64F80119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="180" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3410" yWindow="110" windowWidth="12620" windowHeight="9930" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <author>tc={29A8E33F-04DE-4246-9E65-5E44E117B9A0}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -89,7 +89,7 @@
     肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
       </text>
     </comment>
-    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
+    <comment ref="AB4" authorId="1" shapeId="0" xr:uid="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -97,7 +97,7 @@
     心肌炎,腦炎,腦病變</t>
       </text>
     </comment>
-    <comment ref="AL4" authorId="2" shapeId="0" xr:uid="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
+    <comment ref="AM4" authorId="2" shapeId="0" xr:uid="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -106,7 +106,7 @@
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </t>
       </text>
     </comment>
-    <comment ref="CA4" authorId="3" shapeId="0" xr:uid="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
+    <comment ref="CB4" authorId="3" shapeId="0" xr:uid="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -114,7 +114,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
+    <comment ref="AA5" authorId="4" shapeId="0" xr:uid="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -122,7 +122,7 @@
     肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
       </text>
     </comment>
-    <comment ref="AA5" authorId="5" shapeId="0" xr:uid="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
+    <comment ref="AB5" authorId="5" shapeId="0" xr:uid="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -130,7 +130,7 @@
     心肌炎,腦炎,腦病變</t>
       </text>
     </comment>
-    <comment ref="AL5" authorId="6" shapeId="0" xr:uid="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
+    <comment ref="AM5" authorId="6" shapeId="0" xr:uid="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
       <text>
         <t xml:space="preserve">[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -139,7 +139,7 @@
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </t>
       </text>
     </comment>
-    <comment ref="CA5" authorId="7" shapeId="0" xr:uid="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
+    <comment ref="CB5" authorId="7" shapeId="0" xr:uid="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -164,7 +164,7 @@
     <author>tc={E0DCBF48-8C08-4353-B1D0-389B5CD8E882}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -172,7 +172,7 @@
     肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
       </text>
     </comment>
-    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
+    <comment ref="AB4" authorId="1" shapeId="0" xr:uid="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -180,7 +180,7 @@
     心肌炎,腦炎,腦病變</t>
       </text>
     </comment>
-    <comment ref="AL4" authorId="2" shapeId="0" xr:uid="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
+    <comment ref="AM4" authorId="2" shapeId="0" xr:uid="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -189,7 +189,7 @@
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</t>
       </text>
     </comment>
-    <comment ref="CA4" authorId="3" shapeId="0" xr:uid="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
+    <comment ref="CB4" authorId="3" shapeId="0" xr:uid="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -197,7 +197,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
+    <comment ref="AA5" authorId="4" shapeId="0" xr:uid="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -205,7 +205,7 @@
     肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</t>
       </text>
     </comment>
-    <comment ref="AA5" authorId="5" shapeId="0" xr:uid="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
+    <comment ref="AB5" authorId="5" shapeId="0" xr:uid="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -213,7 +213,7 @@
     心肌炎,腦炎,腦病變</t>
       </text>
     </comment>
-    <comment ref="AL5" authorId="6" shapeId="0" xr:uid="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
+    <comment ref="AM5" authorId="6" shapeId="0" xr:uid="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -222,7 +222,7 @@
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</t>
       </text>
     </comment>
-    <comment ref="CA5" authorId="7" shapeId="0" xr:uid="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
+    <comment ref="CB5" authorId="7" shapeId="0" xr:uid="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="514">
   <si>
     <t>User</t>
   </si>
@@ -1938,6 +1938,14 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2076,7 +2084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2175,6 +2183,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,30 +2473,30 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
+  <threadedComment ref="AA4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E4C7C345-4AB1-440C-BA02-47B1B6D5E19B}">
     <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
   </threadedComment>
-  <threadedComment ref="AA4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
+  <threadedComment ref="AB4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{2CE9F12B-79D9-4C31-9C95-03722197DD5E}">
     <text>心肌炎,腦炎,腦病變</text>
   </threadedComment>
-  <threadedComment ref="AL4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
+  <threadedComment ref="AM4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5DD0AB56-6240-41AA-809A-E02AA0A0D00D}">
     <text xml:space="preserve">精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </text>
   </threadedComment>
-  <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
+  <threadedComment ref="CB4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{5FF0D477-AC67-40EA-A458-0E2A8EC08802}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
+  <threadedComment ref="AA5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{4BD03B68-20BC-4EC0-B36B-A47024C6F216}">
     <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
   </threadedComment>
-  <threadedComment ref="AA5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
+  <threadedComment ref="AB5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{27ED6C96-FFD4-443F-8C1A-511B0B04FCB1}">
     <text>心肌炎,腦炎,腦病變</text>
   </threadedComment>
-  <threadedComment ref="AL5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
+  <threadedComment ref="AM5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{71DCC7AB-355E-4570-B137-55724AE0CBD6}">
     <text xml:space="preserve">精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他： </text>
   </threadedComment>
-  <threadedComment ref="CA5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
+  <threadedComment ref="CB5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{29A8E33F-04DE-4246-9E65-5E44E117B9A0}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
 </ThreadedComments>
@@ -2493,30 +2504,30 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
+  <threadedComment ref="AA4" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{8168730D-F7FA-47B7-B058-A90C694CCBE3}">
     <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
   </threadedComment>
-  <threadedComment ref="AA4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
+  <threadedComment ref="AB4" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{85F05B7C-8173-4F3F-AC23-B20709FAA811}">
     <text>心肌炎,腦炎,腦病變</text>
   </threadedComment>
-  <threadedComment ref="AL4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
+  <threadedComment ref="AM4" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{A72581BE-4881-47A5-8ED6-5787E8E0BDCE}">
     <text>精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</text>
   </threadedComment>
-  <threadedComment ref="CA4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
+  <threadedComment ref="CB4" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{546E0267-B543-4EA0-B922-AAF97F9CF889}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
+  <threadedComment ref="AA5" dT="2023-11-13T07:26:54.78" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{649021B0-0A1F-406E-A78E-19DCC7D072D1}">
     <text>肌肉酸痛,呼吸困難,咳嗽,流鼻水,喉嚨痛,發燒,腹瀉,嘔吐,頭痛,關節痛,噁心,X光片顯示肺炎,全身倦怠,CT顯示肺炎,嗅覺異常,味覺異常,其他新冠感染相關併發症</text>
   </threadedComment>
-  <threadedComment ref="AA5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
+  <threadedComment ref="AB5" dT="2023-11-13T07:28:23.14" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6841BBF9-1B1E-4830-B8BD-86431A8FDD45}">
     <text>心肌炎,腦炎,腦病變</text>
   </threadedComment>
-  <threadedComment ref="AL5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
+  <threadedComment ref="AM5" dT="2023-11-13T07:34:55.82" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{6CB3A818-8B4D-41C5-A57B-3D3AC421FA76}">
     <text>精神疾病,神經肌肉疾病,慢性肺疾(如氣喘、慢性阻塞性肺疾等),糖尿病,
 心血管疾病(高血壓除外),肝臟疾病(如肝炎、肝硬化等),腎臟疾病(如慢性腎功能不全、長期接受血液或腹膜透析等),仍在治療中或未治癒之癌症,免疫低下狀態，說明,懷孕，週數,高血壓,肥胖(BMI≧30),其他</text>
   </threadedComment>
-  <threadedComment ref="CA5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
+  <threadedComment ref="CB5" dT="2023-11-13T07:40:21.53" personId="{8A34AEF9-DF22-4C9E-998B-7E5B8699C038}" id="{E0DCBF48-8C08-4353-B1D0-389B5CD8E882}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型,曾接觸來自國外有發燒或呼吸道症狀人士,曾經與出現症狀的極可能或確定病例有密切接觸,家庭或同單位有群聚情形</text>
   </threadedComment>
 </ThreadedComments>
@@ -2573,376 +2584,380 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CJ5"/>
+  <dimension ref="A1:CK5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" style="6"/>
-    <col min="18" max="18" width="9.59765625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.796875" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.69921875" customWidth="1"/>
-    <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="24.09765625" customWidth="1"/>
-    <col min="42" max="42" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.3984375" customWidth="1"/>
-    <col min="46" max="46" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.3984375" customWidth="1"/>
-    <col min="49" max="49" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.09765625" customWidth="1"/>
-    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="26" customWidth="1"/>
-    <col min="61" max="61" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="22.19921875" customWidth="1"/>
-    <col min="68" max="68" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="22.19921875" customWidth="1"/>
-    <col min="72" max="72" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="32.59765625" customWidth="1"/>
-    <col min="75" max="75" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="31" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.3984375" customWidth="1"/>
-    <col min="82" max="82" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.09765625" customWidth="1"/>
-    <col min="86" max="86" width="12.8984375" customWidth="1"/>
-    <col min="87" max="87" width="14.09765625" customWidth="1"/>
-    <col min="88" max="88" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="6"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="6"/>
+    <col min="19" max="19" width="9.59765625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.796875" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.69921875" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="24.09765625" customWidth="1"/>
+    <col min="43" max="43" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.3984375" customWidth="1"/>
+    <col min="47" max="47" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.3984375" customWidth="1"/>
+    <col min="50" max="50" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.09765625" customWidth="1"/>
+    <col min="53" max="53" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26" bestFit="1" customWidth="1"/>
+    <col min="56" max="61" width="26" customWidth="1"/>
+    <col min="62" max="62" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="22.19921875" customWidth="1"/>
+    <col min="69" max="69" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="22.19921875" customWidth="1"/>
+    <col min="73" max="73" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="32.59765625" customWidth="1"/>
+    <col min="76" max="76" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="31" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="32.3984375" customWidth="1"/>
+    <col min="83" max="83" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.09765625" customWidth="1"/>
+    <col min="87" max="87" width="12.8984375" customWidth="1"/>
+    <col min="88" max="88" width="14.09765625" customWidth="1"/>
+    <col min="89" max="89" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="19" customFormat="1" ht="43.5" customHeight="1">
+    <row r="1" spans="1:89" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BN1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BP1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="12" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="12" t="s">
+      <c r="BR1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="12" t="s">
+      <c r="BS1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="BT1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="12" t="s">
+      <c r="BU1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="12" t="s">
+      <c r="BV1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="12" t="s">
+      <c r="BW1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BX1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="BY1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="18" t="s">
+      <c r="BZ1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="12" t="s">
+      <c r="CA1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="12" t="s">
+      <c r="CB1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="12" t="s">
+      <c r="CC1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CD1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="12" t="s">
+      <c r="CE1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="12" t="s">
+      <c r="CF1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="12" t="s">
+      <c r="CG1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="12" t="s">
+      <c r="CH1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CI1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="12" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="12" t="s">
+      <c r="CK1" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:88" s="23" customFormat="1" ht="48.5" customHeight="1">
+    <row r="2" spans="1:89" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2950,592 +2965,598 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Y2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AR2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="AU2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AV2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="AX2" s="7" t="s">
         <v>100</v>
       </c>
       <c r="AY2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BA2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BJ2" s="7"/>
       <c r="BK2" s="7"/>
-      <c r="BL2" s="7" t="s">
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="BO2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ2" s="7" t="s">
         <v>111</v>
       </c>
       <c r="BR2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="BV2" s="7" t="s">
         <v>115</v>
       </c>
       <c r="BW2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7" t="s">
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="CF2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="CG2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="CI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="7"/>
+      <c r="CJ2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK2" s="7"/>
     </row>
-    <row r="3" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+    <row r="3" spans="1:89" s="26" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AI3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AU3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="7" t="s">
+      <c r="AX3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BB3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BD3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BE3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BG3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BH3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BI3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BK3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BL3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BM3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BN3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BO3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BP3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="7" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="BR3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BS3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="CB3" s="7" t="s">
+      <c r="CC3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="CC3" s="7" t="s">
+      <c r="CD3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="CD3" s="7" t="s">
+      <c r="CE3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CE3" s="7" t="s">
+      <c r="CF3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CF3" s="7" t="s">
+      <c r="CG3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CG3" s="7" t="s">
+      <c r="CH3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="7" t="s">
+      <c r="CI3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CI3" s="7" t="s">
+      <c r="CJ3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="CJ3" s="7" t="s">
+      <c r="CK3" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+    <row r="4" spans="1:89" s="26" customFormat="1" ht="53" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>12345</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>54321</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="21" t="b">
+      <c r="S4" s="7"/>
+      <c r="T4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="7">
+      <c r="U4" s="7">
         <v>-1</v>
       </c>
-      <c r="U4" s="7">
+      <c r="V4" s="7">
         <v>-5</v>
       </c>
-      <c r="V4" s="21" t="b">
+      <c r="W4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="7">
+      <c r="X4" s="7">
         <v>-5</v>
       </c>
-      <c r="X4" s="7">
+      <c r="Y4" s="7">
         <v>-4</v>
       </c>
-      <c r="Y4" s="21" t="b">
+      <c r="Z4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AB4" s="21" t="b">
+      <c r="AC4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AD4" s="7">
         <v>-4</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AF4" s="7">
         <v>-4</v>
       </c>
-      <c r="AF4" s="21" t="b">
+      <c r="AG4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AH4" s="7">
         <v>-3</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AJ4" s="7">
         <v>-3</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="AK4" s="21" t="b">
+      <c r="AL4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AO4" s="7">
         <v>8</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AP4" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="AP4" s="21" t="b">
+      <c r="AQ4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AQ4" s="21" t="b">
+      <c r="AR4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -3545,35 +3566,35 @@
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
-      <c r="BB4" s="7" t="s">
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BD4" s="7">
         <v>2</v>
       </c>
-      <c r="BD4" s="21" t="b">
+      <c r="BE4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="BE4" s="7" t="s">
+      <c r="BF4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="BF4" s="7" t="s">
+      <c r="BG4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="BG4" s="7" t="s">
+      <c r="BH4" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="21" t="b">
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="BJ4" s="7" t="s">
+      <c r="BK4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="BK4" s="7" t="s">
+      <c r="BL4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
@@ -3588,164 +3609,167 @@
       <c r="BX4" s="7"/>
       <c r="BY4" s="7"/>
       <c r="BZ4" s="7"/>
-      <c r="CA4" s="7" t="s">
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="CB4" s="21" t="b">
+      <c r="CC4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="CC4" s="7" t="s">
+      <c r="CD4" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="CD4" s="21" t="b">
+      <c r="CE4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
-      <c r="CG4" s="21" t="b">
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="CH4" s="7"/>
       <c r="CI4" s="7"/>
       <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
     </row>
-    <row r="5" spans="1:88" s="26" customFormat="1" ht="53" customHeight="1">
+    <row r="5" spans="1:89" s="26" customFormat="1" ht="53" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>12345</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>54321</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="21" t="b">
+      <c r="S5" s="7"/>
+      <c r="T5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="21" t="b">
+      <c r="V5" s="7"/>
+      <c r="W5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="W5" s="7">
+      <c r="X5" s="7">
         <v>-30</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>-20</v>
       </c>
-      <c r="Y5" s="21" t="b">
+      <c r="Z5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="21" t="b">
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AD5" s="7">
         <v>-20</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AE5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AF5" s="7">
         <v>-20</v>
       </c>
-      <c r="AF5" s="21" t="b">
+      <c r="AG5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AH5" s="7">
         <v>-19</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AI5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AJ5" s="7">
         <v>-19</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AK5" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="AK5" s="21" t="b">
+      <c r="AL5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
-      <c r="AP5" s="21" t="b">
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AQ5" s="21" t="b">
+      <c r="AR5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AS5" s="7">
         <v>3</v>
       </c>
-      <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
-      <c r="AY5" s="7" t="s">
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="AZ5" s="7">
-        <v>-40</v>
       </c>
       <c r="BA5" s="7">
         <v>-40</v>
       </c>
-      <c r="BB5" s="7"/>
+      <c r="BB5" s="7">
+        <v>-40</v>
+      </c>
       <c r="BC5" s="7"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="21"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="21"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -3763,42 +3787,43 @@
       <c r="BY5" s="7"/>
       <c r="BZ5" s="7"/>
       <c r="CA5" s="7"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="7"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="21"/>
       <c r="CF5" s="7"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="7"/>
+      <c r="CG5" s="7"/>
+      <c r="CH5" s="21"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
+      <c r="CK5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AK4:AK5 Y4:Y5 AB4:AB5 AF4:AF5 AP4:AQ5 BD4:BD5 BI4:BI5 CB4:CB5 CD4:CD5 CG4:CG5" xr:uid="{AF4C0381-D66A-4FE8-966E-12BE73088DA5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 AL4:AL5 Z4:Z5 AC4:AC5 AG4:AG5 AQ4:AR5 BE4:BE5 BJ4:BJ5 CC4:CC5 CE4:CE5 CH4:CH5" xr:uid="{AF4C0381-D66A-4FE8-966E-12BE73088DA5}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{4E286A72-0E01-46D1-B1F1-CDA5888222C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5" xr:uid="{4E286A72-0E01-46D1-B1F1-CDA5888222C1}">
       <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{DE2BB51D-13C5-4581-9F22-932E0EE4D0EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{DE2BB51D-13C5-4581-9F22-932E0EE4D0EE}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{1096B837-18CF-49E6-835F-8776C17A899F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{1096B837-18CF-49E6-835F-8776C17A899F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4:AR5 BC4:BC5" xr:uid="{6FF3BA71-5B15-49BD-B0BC-542338A8EA76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5 BD4:BD5" xr:uid="{6FF3BA71-5B15-49BD-B0BC-542338A8EA76}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5" xr:uid="{87BB3D9A-6C65-4E14-B738-F583D919DCBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM4:BM5" xr:uid="{87BB3D9A-6C65-4E14-B738-F583D919DCBE}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5" xr:uid="{59F3719E-CB18-41FF-B76B-1B01961C5B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT4:BT5" xr:uid="{59F3719E-CB18-41FF-B76B-1B01961C5B2E}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{15ACE5BF-E724-4235-A8AC-9BA84675CB0E}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{15ACE5BF-E724-4235-A8AC-9BA84675CB0E}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3811,61 +3836,61 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4:BU5 AS4:AS5 O4:O5</xm:sqref>
+          <xm:sqref>BV4:BV5 AT4:AT5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56D8667D-EB84-422E-B6C4-29579D347D27}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ4:AJ5</xm:sqref>
+          <xm:sqref>AK4:AK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61915E61-2302-41B3-9082-599967063B13}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4:AV5 AY4:AY5 BE4:BE5</xm:sqref>
+          <xm:sqref>AW4:AW5 AZ4:AZ5 BF4:BF5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB06F5AC-DB4D-4E3C-8D5B-2C82008775E6}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BG4:BG5</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80FC0BBF-C97A-460A-8CC7-94BB90EBC256}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BJ4:BJ5</xm:sqref>
+          <xm:sqref>BK4:BK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{767F2C75-1629-4D8F-9998-F11366F7F55D}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BV4:BV5</xm:sqref>
+          <xm:sqref>BW4:BW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4B02CCC-9E78-41E4-827B-045F1C9F43E1}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>CC4:CC5</xm:sqref>
+          <xm:sqref>CD4:CD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D169778B-8A93-42B1-AC3F-54A0F57E9592}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4:BK5</xm:sqref>
+          <xm:sqref>BL4:BL5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D07D9A0-FF80-4FB5-BA59-FB8A82A5B2B2}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CAE37B9-5896-487C-9092-E0786C4AE7B5}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3875,866 +3900,876 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CJ5"/>
+  <dimension ref="A1:CK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="11.3984375" customWidth="1"/>
-    <col min="40" max="40" width="9.5" customWidth="1"/>
-    <col min="41" max="41" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.3984375" customWidth="1"/>
+    <col min="41" max="41" width="9.5" customWidth="1"/>
+    <col min="42" max="42" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="43.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:89" ht="43.5" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="31" t="s">
+      <c r="BZ1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:88" s="2" customFormat="1" ht="47.5" customHeight="1">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:89" s="2" customFormat="1" ht="47.5" customHeight="1">
+      <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Y2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AR2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AT2" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="AU2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AV2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="AX2" s="7" t="s">
         <v>100</v>
       </c>
       <c r="AY2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BA2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BE2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BF2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BJ2" s="7"/>
       <c r="BK2" s="7"/>
-      <c r="BL2" s="7" t="s">
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="BO2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ2" s="7" t="s">
         <v>111</v>
       </c>
       <c r="BR2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="BV2" s="7" t="s">
         <v>115</v>
       </c>
       <c r="BW2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7" t="s">
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CE2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="CF2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="CG2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="CI2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CJ2" s="7"/>
+      <c r="CJ2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK2" s="7"/>
     </row>
-    <row r="3" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:89" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AI3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AU3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="7" t="s">
+      <c r="AX3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BB3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BD3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BE3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BG3" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BH3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BI3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BK3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BL3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BM3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BN3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BO3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BP3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="7" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="BR3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BS3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="CB3" s="7" t="s">
+      <c r="CC3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="CC3" s="7" t="s">
+      <c r="CD3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="CD3" s="7" t="s">
+      <c r="CE3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CE3" s="7" t="s">
+      <c r="CF3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CF3" s="7" t="s">
+      <c r="CG3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CG3" s="7" t="s">
+      <c r="CH3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="7" t="s">
+      <c r="CI3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CI3" s="7" t="s">
+      <c r="CJ3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="CJ3" s="7" t="s">
+      <c r="CK3" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:89" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E4" s="32">
+      <c r="F4" s="32">
         <v>45301</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="21" t="b">
+      <c r="R4" s="21"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="21"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="21"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="AK4" s="21" t="b">
+      <c r="AL4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
-      <c r="AP4" s="21" t="b">
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AQ4" s="21" t="b">
+      <c r="AR4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AS4" s="7">
         <v>3</v>
       </c>
-      <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
-      <c r="AY4" s="7" t="s">
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="AZ4" s="7">
-        <v>-40</v>
       </c>
       <c r="BA4" s="7">
         <v>-40</v>
       </c>
-      <c r="BB4" s="7"/>
+      <c r="BB4" s="7">
+        <v>-40</v>
+      </c>
       <c r="BC4" s="7"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="21"/>
       <c r="BF4" s="7"/>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="21"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
@@ -4752,81 +4787,84 @@
       <c r="BY4" s="7"/>
       <c r="BZ4" s="7"/>
       <c r="CA4" s="7"/>
-      <c r="CB4" s="21"/>
-      <c r="CC4" s="7"/>
-      <c r="CD4" s="21"/>
-      <c r="CE4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="21"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="21"/>
       <c r="CF4" s="7"/>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="21"/>
       <c r="CI4" s="7"/>
       <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
     </row>
-    <row r="5" spans="1:88" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:89" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="E5" s="32">
+      <c r="F5" s="32">
         <v>45301</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="21"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="21"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="21"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="21"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
-      <c r="AP5" s="21"/>
+      <c r="AP5" s="7"/>
       <c r="AQ5" s="21"/>
-      <c r="AR5" s="7"/>
+      <c r="AR5" s="21"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
@@ -4838,13 +4876,13 @@
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="21"/>
       <c r="BF5" s="7"/>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="21"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
@@ -4862,39 +4900,40 @@
       <c r="BY5" s="7"/>
       <c r="BZ5" s="7"/>
       <c r="CA5" s="7"/>
-      <c r="CB5" s="21"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="21"/>
-      <c r="CE5" s="7"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="21"/>
       <c r="CF5" s="7"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="7"/>
+      <c r="CG5" s="7"/>
+      <c r="CH5" s="21"/>
       <c r="CI5" s="7"/>
       <c r="CJ5" s="7"/>
+      <c r="CK5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS4:BS5" xr:uid="{67A69E04-73FC-44FB-931B-0173AEEBF11B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT4:BT5" xr:uid="{67A69E04-73FC-44FB-931B-0173AEEBF11B}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL4:BL5" xr:uid="{031B015D-72D7-47D5-9438-2595A82365C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM4:BM5" xr:uid="{031B015D-72D7-47D5-9438-2595A82365C4}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR4:AR5 BC4:BC5" xr:uid="{B395D944-2E95-42BF-AA93-F67CFC9F9262}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AS5 BD4:BD5" xr:uid="{B395D944-2E95-42BF-AA93-F67CFC9F9262}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{9CBC689B-D7DA-4282-B95E-5106742832E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{9CBC689B-D7DA-4282-B95E-5106742832E2}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{611834FB-8052-450D-923E-7138DCCCFEA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{611834FB-8052-450D-923E-7138DCCCFEA4}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S5 V4:V5 AK4:AK5 Y4:Y5 AB4:AB5 AF4:AF5 AP4:AQ5 BD4:BD5 BI4:BI5 CB4:CB5 CD4:CD5 CG4:CG5" xr:uid="{2CF2537F-D972-4BF7-9E4B-D4CF285F9E5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T5 W4:W5 AL4:AL5 Z4:Z5 AC4:AC5 AG4:AG5 AQ4:AR5 BE4:BE5 BJ4:BJ5 CC4:CC5 CE4:CE5 CH4:CH5" xr:uid="{2CF2537F-D972-4BF7-9E4B-D4CF285F9E5B}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{8EF7C3A6-29A6-47BC-9DED-A2DF1C4BF2EA}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{8EF7C3A6-29A6-47BC-9DED-A2DF1C4BF2EA}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,61 +4945,61 @@
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4:BK5</xm:sqref>
+          <xm:sqref>BL4:BL5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB68C6E-06D9-408D-A90F-BD7206901368}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>CC4:CC5</xm:sqref>
+          <xm:sqref>CD4:CD5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D250364-163A-4ACC-AD25-67BE94FDDF3E}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BV4:BV5</xm:sqref>
+          <xm:sqref>BW4:BW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{119040D8-2E3D-4ACF-973E-AFC73AAF1971}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>BJ4:BJ5</xm:sqref>
+          <xm:sqref>BK4:BK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5789953-058B-4F11-875F-1FEDBC3E5C0F}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>BG4:BG5</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F9782DE-9801-486F-B26C-BA855272BA63}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4:AV5 AY4:AY5 BE4:BE5</xm:sqref>
+          <xm:sqref>AW4:AW5 AZ4:AZ5 BF4:BF5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAC3F484-8104-44BD-AB82-7A4816451904}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ4:AJ5</xm:sqref>
+          <xm:sqref>AK4:AK5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C80DE5E-3227-4135-AE78-BE6AD9323EA8}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>BU4:BU5 AS4:AS5 O4:O5</xm:sqref>
+          <xm:sqref>BV4:BV5 AT4:AT5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E0E9EFC-64B8-4EB3-816B-0DC6ED9A5B01}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAD03FF1-088C-43C5-ABE8-00188AC3821A}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
